--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>112.466131</v>
+        <v>53.50391</v>
       </c>
       <c r="H2">
-        <v>337.398393</v>
+        <v>160.51173</v>
       </c>
       <c r="I2">
-        <v>0.2948491373870378</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="J2">
-        <v>0.2948491373870379</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>147.0052296043067</v>
+        <v>22.93942688513</v>
       </c>
       <c r="R2">
-        <v>1323.04706643876</v>
+        <v>206.45484196617</v>
       </c>
       <c r="S2">
-        <v>0.003704081075671976</v>
+        <v>0.0009802632286325806</v>
       </c>
       <c r="T2">
-        <v>0.003704081075671976</v>
+        <v>0.0009802632286325806</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>112.466131</v>
+        <v>53.50391</v>
       </c>
       <c r="H3">
-        <v>337.398393</v>
+        <v>160.51173</v>
       </c>
       <c r="I3">
-        <v>0.2948491373870378</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="J3">
-        <v>0.2948491373870379</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>9022.734480079049</v>
+        <v>4292.417364086669</v>
       </c>
       <c r="R3">
-        <v>81204.61032071144</v>
+        <v>38631.75627678003</v>
       </c>
       <c r="S3">
-        <v>0.2273452456652925</v>
+        <v>0.1834265051619795</v>
       </c>
       <c r="T3">
-        <v>0.2273452456652925</v>
+        <v>0.1834265051619795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>112.466131</v>
+        <v>53.50391</v>
       </c>
       <c r="H4">
-        <v>337.398393</v>
+        <v>160.51173</v>
       </c>
       <c r="I4">
-        <v>0.2948491373870378</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="J4">
-        <v>0.2948491373870379</v>
+        <v>0.2378988688891082</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>2532.046578120819</v>
+        <v>1251.784309025843</v>
       </c>
       <c r="R4">
-        <v>22788.41920308737</v>
+        <v>11266.05878123259</v>
       </c>
       <c r="S4">
-        <v>0.06379981064607339</v>
+        <v>0.05349210049849609</v>
       </c>
       <c r="T4">
-        <v>0.0637998106460734</v>
+        <v>0.05349210049849609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>82.26089466666667</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H5">
         <v>246.782684</v>
       </c>
       <c r="I5">
-        <v>0.2156609604819841</v>
+        <v>0.3657634328968867</v>
       </c>
       <c r="J5">
-        <v>0.2156609604819842</v>
+        <v>0.3657634328968868</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>107.5237638247644</v>
+        <v>35.26878276207066</v>
       </c>
       <c r="R5">
-        <v>967.7138744228801</v>
+        <v>317.419044858636</v>
       </c>
       <c r="S5">
-        <v>0.002709269186139655</v>
+        <v>0.0015071296695167</v>
       </c>
       <c r="T5">
-        <v>0.002709269186139655</v>
+        <v>0.001507129669516701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>82.26089466666667</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H6">
         <v>246.782684</v>
       </c>
       <c r="I6">
-        <v>0.2156609604819841</v>
+        <v>0.3657634328968867</v>
       </c>
       <c r="J6">
-        <v>0.2156609604819842</v>
+        <v>0.3657634328968868</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>6599.482031360038</v>
+        <v>6599.482031360034</v>
       </c>
       <c r="R6">
-        <v>59395.33828224034</v>
+        <v>59395.33828224031</v>
       </c>
       <c r="S6">
-        <v>0.1662867135230257</v>
+        <v>0.2820135653675476</v>
       </c>
       <c r="T6">
-        <v>0.1662867135230257</v>
+        <v>0.2820135653675476</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>82.26089466666667</v>
+        <v>82.26089466666666</v>
       </c>
       <c r="H7">
         <v>246.782684</v>
       </c>
       <c r="I7">
-        <v>0.2156609604819841</v>
+        <v>0.3657634328968867</v>
       </c>
       <c r="J7">
-        <v>0.2156609604819842</v>
+        <v>0.3657634328968868</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>1852.010156318887</v>
+        <v>1924.586393595552</v>
       </c>
       <c r="R7">
-        <v>16668.09140686999</v>
+        <v>17321.27754235997</v>
       </c>
       <c r="S7">
-        <v>0.04666497777281876</v>
+        <v>0.08224273785982246</v>
       </c>
       <c r="T7">
-        <v>0.04666497777281876</v>
+        <v>0.08224273785982247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>186.7091623333333</v>
+        <v>89.13710533333334</v>
       </c>
       <c r="H8">
-        <v>560.127487</v>
+        <v>267.411316</v>
       </c>
       <c r="I8">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140051</v>
       </c>
       <c r="J8">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140052</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>244.0487908136489</v>
+        <v>38.21690995192934</v>
       </c>
       <c r="R8">
-        <v>2196.43911732284</v>
+        <v>343.952189567364</v>
       </c>
       <c r="S8">
-        <v>0.006149281287656875</v>
+        <v>0.001633111050482399</v>
       </c>
       <c r="T8">
-        <v>0.006149281287656876</v>
+        <v>0.0016331110504824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>186.7091623333333</v>
+        <v>89.13710533333334</v>
       </c>
       <c r="H9">
-        <v>560.127487</v>
+        <v>267.411316</v>
       </c>
       <c r="I9">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140051</v>
       </c>
       <c r="J9">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140052</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>14978.97350742547</v>
+        <v>7151.134537965963</v>
       </c>
       <c r="R9">
-        <v>134810.7615668293</v>
+        <v>64360.21084169367</v>
       </c>
       <c r="S9">
-        <v>0.3774242076366318</v>
+        <v>0.3055871563694799</v>
       </c>
       <c r="T9">
-        <v>0.3774242076366319</v>
+        <v>0.3055871563694799</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>186.7091623333333</v>
+        <v>89.13710533333334</v>
       </c>
       <c r="H10">
-        <v>560.127487</v>
+        <v>267.411316</v>
       </c>
       <c r="I10">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140051</v>
       </c>
       <c r="J10">
-        <v>0.489489902130978</v>
+        <v>0.3963376982140052</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>4203.54369254439</v>
+        <v>2085.463096215781</v>
       </c>
       <c r="R10">
-        <v>37831.89323289951</v>
+        <v>18769.16786594203</v>
       </c>
       <c r="S10">
-        <v>0.1059164132066893</v>
+        <v>0.08911743079404287</v>
       </c>
       <c r="T10">
-        <v>0.1059164132066893</v>
+        <v>0.08911743079404288</v>
       </c>
     </row>
   </sheetData>
